--- a/RoomAllocation.xlsx
+++ b/RoomAllocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakrak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\עומר קידר\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D83195-E36B-4EB1-885A-FA58C2403DE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A263F229-9FAE-4EF9-A547-274E8637E038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5E48CB3D-108D-45CC-A047-D2BC0DED43B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E48CB3D-108D-45CC-A047-D2BC0DED43B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE77477-CB92-4467-AE4B-899ADB3285F0}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,38 +513,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>43968</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>43968</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>43968</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>43968</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
